--- a/biology/Médecine/1815_en_santé_et_médecine/1815_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1815_en_santé_et_médecine/1815_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1815_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1815_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1815 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1815_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1815_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L’Apothecaries Act interdit aux gens non qualifiés la pratique de la médecine en Angleterre et au pays de Galles[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L’Apothecaries Act interdit aux gens non qualifiés la pratique de la médecine en Angleterre et au pays de Galles.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1815_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1815_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1815_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1815_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,11 +583,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>21 janvier : Horace Wells (mort en 1848), dentiste américain[2].
-26 juillet : Robert Remak (mort en 1865), embryologiste, physiologiste et neurologue allemand[3].
-4 août : Karl August Wunderlich (mort en 1877), médecin allemand[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>21 janvier : Horace Wells (mort en 1848), dentiste américain.
+26 juillet : Robert Remak (mort en 1865), embryologiste, physiologiste et neurologue allemand.
+4 août : Karl August Wunderlich (mort en 1877), médecin allemand.
 13 septembre : Eugène Joseph Daviers (mort en 1871), médecin français</t>
         </is>
       </c>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1815_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1815_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,10 +618,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 mars : Franz-Anton Mesmer (né en 1734), médecin allemand, fondateur de la théorie du magnétisme animal, aussi connue sous le nom de mesmérisme[5].
-10 avril : William Roxburgh (né en 1759), médecin et botaniste écossais[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Franz-Anton Mesmer (né en 1734), médecin allemand, fondateur de la théorie du magnétisme animal, aussi connue sous le nom de mesmérisme.
+10 avril : William Roxburgh (né en 1759), médecin et botaniste écossais.</t>
         </is>
       </c>
     </row>
